--- a/target/test-classes/xls/demo.xlsx
+++ b/target/test-classes/xls/demo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t xml:space="preserve">Execute</t>
   </si>
@@ -141,16 +141,19 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
+    <t xml:space="preserve">emailid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pwd</t>
   </si>
   <si>
     <t xml:space="preserve">L001</t>
   </si>
   <si>
-    <t xml:space="preserve">admin</t>
+    <t xml:space="preserve">manalidere123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahendrasangita</t>
   </si>
   <si>
     <t xml:space="preserve">L002</t>
@@ -173,7 +176,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -211,6 +214,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,7 +265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -273,6 +284,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -358,7 +373,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.5"/>
@@ -495,7 +510,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.5"/>
@@ -589,19 +604,19 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -613,29 +628,29 @@
         <v>42</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
